--- a/工作代码/每日报表/每日报表基础文件.xlsx
+++ b/工作代码/每日报表/每日报表基础文件.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20337"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{660D6C2E-5329-455F-B400-3CC72DFE03C4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1473E42F-0356-4C10-906B-80CC3EF7FC32}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="1824" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>昨天是今年第几天</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -91,6 +91,10 @@
   </si>
   <si>
     <t>num</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>否</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -442,7 +446,7 @@
   <dimension ref="A1:B16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="A2" sqref="A2:B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -465,7 +469,7 @@
         <v>12</v>
       </c>
       <c r="B2">
-        <v>1108</v>
+        <v>1115</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -474,7 +478,7 @@
       </c>
       <c r="B3" s="1">
         <f ca="1">TODAY()-"1-1"</f>
-        <v>312</v>
+        <v>319</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -490,7 +494,7 @@
         <v>13</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -504,7 +508,7 @@
         <v>1</v>
       </c>
       <c r="B7" s="2">
-        <v>5586159.0000003604</v>
+        <v>2858187.9999999255</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -512,7 +516,7 @@
         <v>2</v>
       </c>
       <c r="B8" s="2">
-        <v>25143308.000000395</v>
+        <v>42040079.000000313</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -520,46 +524,46 @@
         <v>3</v>
       </c>
       <c r="B9" s="2">
-        <v>1183236673.0000002</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+        <v>1200133444.0000002</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1197799.99999999</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+        <v>614599.99999997579</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>10</v>
       </c>
       <c r="B11" s="3"/>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>7</v>
       </c>
-      <c r="B12" s="2">
-        <v>2814161.0000000177</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B12">
+        <v>5631962.000000177</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>6</v>
       </c>
-      <c r="B13" s="2">
-        <v>22690696.999999993</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B13">
+        <v>50220969.000000231</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>11</v>
       </c>
       <c r="B14" s="3"/>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>4</v>
       </c>
@@ -567,7 +571,7 @@
         <v>7500</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>5</v>
       </c>

--- a/工作代码/每日报表/每日报表基础文件.xlsx
+++ b/工作代码/每日报表/每日报表基础文件.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20337"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1473E42F-0356-4C10-906B-80CC3EF7FC32}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B4B693E-8F60-4E80-BE6B-3096047B225C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1824" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="3192" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -446,7 +446,7 @@
   <dimension ref="A1:B16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:B16"/>
+      <selection activeCell="H7" sqref="H7:J16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -469,7 +469,7 @@
         <v>12</v>
       </c>
       <c r="B2">
-        <v>1115</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -478,7 +478,7 @@
       </c>
       <c r="B3" s="1">
         <f ca="1">TODAY()-"1-1"</f>
-        <v>319</v>
+        <v>324</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -508,7 +508,7 @@
         <v>1</v>
       </c>
       <c r="B7" s="2">
-        <v>2858187.9999999255</v>
+        <v>2891380.999999952</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -516,15 +516,15 @@
         <v>2</v>
       </c>
       <c r="B8" s="2">
-        <v>42040079.000000313</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+        <v>53517972.000000358</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>3</v>
       </c>
       <c r="B9" s="2">
-        <v>1200133444.0000002</v>
+        <v>1211611337.0000002</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
@@ -532,7 +532,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>614599.99999997579</v>
+        <v>624790.00000003725</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
@@ -546,7 +546,7 @@
         <v>7</v>
       </c>
       <c r="B12">
-        <v>5631962.000000177</v>
+        <v>5725473.0000000456</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
@@ -554,7 +554,7 @@
         <v>6</v>
       </c>
       <c r="B13">
-        <v>50220969.000000231</v>
+        <v>75444434.00000003</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">

--- a/工作代码/每日报表/每日报表基础文件.xlsx
+++ b/工作代码/每日报表/每日报表基础文件.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20337"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20338"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B4B693E-8F60-4E80-BE6B-3096047B225C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6961224-9634-4478-AD65-850F64B7FFEA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="3192" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="4104" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -446,7 +446,7 @@
   <dimension ref="A1:B16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7:J16"/>
+      <selection activeCell="A2" sqref="A2:B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -469,7 +469,7 @@
         <v>12</v>
       </c>
       <c r="B2">
-        <v>1120</v>
+        <v>1121</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -478,7 +478,7 @@
       </c>
       <c r="B3" s="1">
         <f ca="1">TODAY()-"1-1"</f>
-        <v>324</v>
+        <v>325</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -497,7 +497,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>9</v>
       </c>
@@ -508,15 +508,15 @@
         <v>1</v>
       </c>
       <c r="B7" s="2">
-        <v>2891380.999999952</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+        <v>2845513.999999987</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>2</v>
       </c>
       <c r="B8" s="2">
-        <v>53517972.000000358</v>
+        <v>56363486.000000343</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
@@ -524,7 +524,7 @@
         <v>3</v>
       </c>
       <c r="B9" s="2">
-        <v>1211611337.0000002</v>
+        <v>1214456851.0000002</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
@@ -532,7 +532,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>624790.00000003725</v>
+        <v>608099.99999997579</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
@@ -546,7 +546,7 @@
         <v>7</v>
       </c>
       <c r="B12">
-        <v>5725473.0000000456</v>
+        <v>5823747.999999987</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
@@ -554,7 +554,7 @@
         <v>6</v>
       </c>
       <c r="B13">
-        <v>75444434.00000003</v>
+        <v>81268182.000000015</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">

--- a/工作代码/每日报表/每日报表基础文件.xlsx
+++ b/工作代码/每日报表/每日报表基础文件.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20338"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6961224-9634-4478-AD65-850F64B7FFEA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B53714C6-0123-458E-8263-47E63C89437D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="4104" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="5016" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -469,7 +469,7 @@
         <v>12</v>
       </c>
       <c r="B2">
-        <v>1121</v>
+        <v>1122</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -478,10 +478,10 @@
       </c>
       <c r="B3" s="1">
         <f ca="1">TODAY()-"1-1"</f>
-        <v>325</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>14</v>
       </c>
@@ -489,7 +489,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>13</v>
       </c>
@@ -508,7 +508,7 @@
         <v>1</v>
       </c>
       <c r="B7" s="2">
-        <v>2845513.999999987</v>
+        <v>2906138.000000013</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
@@ -516,7 +516,7 @@
         <v>2</v>
       </c>
       <c r="B8" s="2">
-        <v>56363486.000000343</v>
+        <v>59269624.000000358</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
@@ -524,7 +524,7 @@
         <v>3</v>
       </c>
       <c r="B9" s="2">
-        <v>1214456851.0000002</v>
+        <v>1217362989.0000002</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
@@ -532,7 +532,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>608099.99999997579</v>
+        <v>609500</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
@@ -546,7 +546,7 @@
         <v>7</v>
       </c>
       <c r="B12">
-        <v>5823747.999999987</v>
+        <v>5782820.0000000242</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
@@ -554,7 +554,7 @@
         <v>6</v>
       </c>
       <c r="B13">
-        <v>81268182.000000015</v>
+        <v>87051002.00000003</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">

--- a/工作代码/每日报表/每日报表基础文件.xlsx
+++ b/工作代码/每日报表/每日报表基础文件.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20338"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B53714C6-0123-458E-8263-47E63C89437D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{482569E5-1658-4CE4-ADBB-A76C4F44FA0B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="5016" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="5472" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -469,7 +469,7 @@
         <v>12</v>
       </c>
       <c r="B2">
-        <v>1122</v>
+        <v>1125</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -478,7 +478,7 @@
       </c>
       <c r="B3" s="1">
         <f ca="1">TODAY()-"1-1"</f>
-        <v>326</v>
+        <v>329</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
@@ -486,7 +486,7 @@
         <v>14</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
@@ -494,7 +494,7 @@
         <v>13</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
@@ -508,7 +508,7 @@
         <v>1</v>
       </c>
       <c r="B7" s="2">
-        <v>2906138.000000013</v>
+        <v>2968216.9999999125</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
@@ -516,7 +516,7 @@
         <v>2</v>
       </c>
       <c r="B8" s="2">
-        <v>59269624.000000358</v>
+        <v>72953863.000000089</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
@@ -524,7 +524,7 @@
         <v>3</v>
       </c>
       <c r="B9" s="2">
-        <v>1217362989.0000002</v>
+        <v>1231047228</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
@@ -532,7 +532,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>609500</v>
+        <v>614300.00000004657</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
@@ -546,7 +546,7 @@
         <v>7</v>
       </c>
       <c r="B12">
-        <v>5782820.0000000242</v>
+        <v>2840530.0000000373</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
@@ -554,7 +554,7 @@
         <v>6</v>
       </c>
       <c r="B13">
-        <v>87051002.00000003</v>
+        <v>98444546.000000238</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">

--- a/工作代码/每日报表/每日报表基础文件.xlsx
+++ b/工作代码/每日报表/每日报表基础文件.xlsx
@@ -1,26 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20338"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21001"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B53714C6-0123-458E-8263-47E63C89437D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D6B7B09-6ECB-4EA2-B7B7-10598C07F151}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="5016" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="5010" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="179021"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="18">
   <si>
     <t>昨天是今年第几天</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -91,10 +96,6 @@
   </si>
   <si>
     <t>num</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>否</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -443,20 +444,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B16"/>
+  <dimension ref="A1:B21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2:B16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="18.88671875" customWidth="1"/>
+    <col min="1" max="1" width="18.875" customWidth="1"/>
     <col min="2" max="2" width="15" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>16</v>
       </c>
@@ -464,24 +465,24 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>12</v>
       </c>
       <c r="B2">
-        <v>1122</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+        <v>1124</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>0</v>
       </c>
       <c r="B3" s="1">
         <f ca="1">TODAY()-"1-1"</f>
-        <v>326</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>14</v>
       </c>
@@ -489,81 +490,81 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>13</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
         <v>9</v>
       </c>
       <c r="B6" s="3"/>
     </row>
-    <row r="7" spans="1:2" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>1</v>
       </c>
       <c r="B7" s="2">
-        <v>2906138.000000013</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+        <v>5636151.9999999087</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>2</v>
       </c>
       <c r="B8" s="2">
-        <v>59269624.000000358</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+        <v>69985646.000000179</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>3</v>
       </c>
       <c r="B9" s="2">
-        <v>1217362989.0000002</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+        <v>1228079011</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>609500</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+        <v>1175299.9999999884</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
         <v>10</v>
       </c>
       <c r="B11" s="3"/>
     </row>
-    <row r="12" spans="1:2" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>7</v>
       </c>
       <c r="B12">
-        <v>5782820.0000000242</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+        <v>2862730.9999999823</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>6</v>
       </c>
       <c r="B13">
-        <v>87051002.00000003</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+        <v>92741205.00000003</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
         <v>11</v>
       </c>
       <c r="B14" s="3"/>
     </row>
-    <row r="15" spans="1:2" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>4</v>
       </c>
@@ -571,7 +572,7 @@
         <v>7500</v>
       </c>
     </row>
-    <row r="16" spans="1:2" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>5</v>
       </c>
@@ -579,6 +580,11 @@
         <v>130125</v>
       </c>
     </row>
+    <row r="17" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="18" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="19" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="20" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="21" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/工作代码/每日报表/每日报表基础文件.xlsx
+++ b/工作代码/每日报表/每日报表基础文件.xlsx
@@ -1,26 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20338"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21001"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{482569E5-1658-4CE4-ADBB-A76C4F44FA0B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3B7853A-1EA6-47A2-8363-33936D5052E4}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="5472" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="5475" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="179021"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="18">
   <si>
     <t>昨天是今年第几天</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -91,10 +96,6 @@
   </si>
   <si>
     <t>num</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>否</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -443,20 +444,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B16"/>
+  <dimension ref="A1:B21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2:B16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="18.88671875" customWidth="1"/>
+    <col min="1" max="1" width="18.875" customWidth="1"/>
     <col min="2" max="2" width="15" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>16</v>
       </c>
@@ -464,32 +465,32 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>12</v>
       </c>
       <c r="B2">
-        <v>1125</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+        <v>1126</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>0</v>
       </c>
       <c r="B3" s="1">
         <f ca="1">TODAY()-"1-1"</f>
-        <v>329</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>14</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>13</v>
       </c>
@@ -497,51 +498,51 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
         <v>9</v>
       </c>
       <c r="B6" s="3"/>
     </row>
-    <row r="7" spans="1:2" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>1</v>
       </c>
       <c r="B7" s="2">
-        <v>2968216.9999999125</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+        <v>5705562.0000001695</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>2</v>
       </c>
       <c r="B8" s="2">
-        <v>72953863.000000089</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+        <v>78659425.000000253</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>3</v>
       </c>
       <c r="B9" s="2">
-        <v>1231047228</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+        <v>1236752790.0000002</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>614300.00000004657</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+        <v>1191799.999999986</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
         <v>10</v>
       </c>
       <c r="B11" s="3"/>
     </row>
-    <row r="12" spans="1:2" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>7</v>
       </c>
@@ -549,7 +550,7 @@
         <v>2840530.0000000373</v>
       </c>
     </row>
-    <row r="13" spans="1:2" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>6</v>
       </c>
@@ -557,13 +558,13 @@
         <v>98444546.000000238</v>
       </c>
     </row>
-    <row r="14" spans="1:2" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
         <v>11</v>
       </c>
       <c r="B14" s="3"/>
     </row>
-    <row r="15" spans="1:2" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>4</v>
       </c>
@@ -571,7 +572,7 @@
         <v>7500</v>
       </c>
     </row>
-    <row r="16" spans="1:2" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>5</v>
       </c>
@@ -579,6 +580,7 @@
         <v>130125</v>
       </c>
     </row>
+    <row r="21" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/工作代码/每日报表/每日报表基础文件.xlsx
+++ b/工作代码/每日报表/每日报表基础文件.xlsx
@@ -1,31 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20338"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3B7853A-1EA6-47A2-8363-33936D5052E4}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{369C31A8-63DA-439D-AC95-A730220F4D6E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="5475" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="5928" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="179021"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>昨天是今年第几天</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -96,6 +91,10 @@
   </si>
   <si>
     <t>num</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>否</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -447,17 +446,17 @@
   <dimension ref="A1:B21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:B16"/>
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.875" customWidth="1"/>
+    <col min="1" max="1" width="18.88671875" customWidth="1"/>
     <col min="2" max="2" width="15" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>16</v>
       </c>
@@ -465,24 +464,24 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>12</v>
       </c>
       <c r="B2">
-        <v>1126</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+        <v>1127</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>0</v>
       </c>
       <c r="B3" s="1">
         <f ca="1">TODAY()-"1-1"</f>
-        <v>330</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>14</v>
       </c>
@@ -490,81 +489,81 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>13</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>9</v>
       </c>
       <c r="B6" s="3"/>
     </row>
-    <row r="7" spans="1:2" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:2" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>1</v>
       </c>
       <c r="B7" s="2">
-        <v>5705562.0000001695</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+        <v>2908253.0000000959</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>2</v>
       </c>
       <c r="B8" s="2">
-        <v>78659425.000000253</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+        <v>81567678.000000358</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>3</v>
       </c>
       <c r="B9" s="2">
-        <v>1236752790.0000002</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+        <v>1239661043.0000002</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1191799.999999986</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+        <v>610599.99999997765</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>10</v>
       </c>
       <c r="B11" s="3"/>
     </row>
-    <row r="12" spans="1:2" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:2" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>7</v>
       </c>
       <c r="B12">
-        <v>2840530.0000000373</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+        <v>2828011.9999999781</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>6</v>
       </c>
       <c r="B13">
-        <v>98444546.000000238</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+        <v>101272558.00000021</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>11</v>
       </c>
       <c r="B14" s="3"/>
     </row>
-    <row r="15" spans="1:2" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:2" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>4</v>
       </c>
@@ -572,7 +571,7 @@
         <v>7500</v>
       </c>
     </row>
-    <row r="16" spans="1:2" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:2" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>5</v>
       </c>
@@ -580,7 +579,10 @@
         <v>130125</v>
       </c>
     </row>
-    <row r="21" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="17" ht="13.8" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="18" ht="13.8" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="19" ht="13.8" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="21" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/工作代码/每日报表/每日报表基础文件.xlsx
+++ b/工作代码/每日报表/每日报表基础文件.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20338"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{369C31A8-63DA-439D-AC95-A730220F4D6E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3983E34A-8687-4D28-8EDA-8FB7F8FA5B41}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="5928" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="6840" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="18">
   <si>
     <t>昨天是今年第几天</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -91,10 +91,6 @@
   </si>
   <si>
     <t>num</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>否</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -446,7 +442,7 @@
   <dimension ref="A1:B21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+      <selection activeCell="A2" sqref="A2:B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -469,7 +465,7 @@
         <v>12</v>
       </c>
       <c r="B2">
-        <v>1127</v>
+        <v>1128</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -478,7 +474,7 @@
       </c>
       <c r="B3" s="1">
         <f ca="1">TODAY()-"1-1"</f>
-        <v>331</v>
+        <v>332</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -494,7 +490,7 @@
         <v>13</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -508,7 +504,7 @@
         <v>1</v>
       </c>
       <c r="B7" s="2">
-        <v>2908253.0000000959</v>
+        <v>5684990.9999998035</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -516,7 +512,7 @@
         <v>2</v>
       </c>
       <c r="B8" s="2">
-        <v>81567678.000000358</v>
+        <v>87252669.000000149</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -524,7 +520,7 @@
         <v>3</v>
       </c>
       <c r="B9" s="2">
-        <v>1239661043.0000002</v>
+        <v>1245346034</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -532,7 +528,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>610599.99999997765</v>
+        <v>1196200.0000000116</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -546,7 +542,7 @@
         <v>7</v>
       </c>
       <c r="B12">
-        <v>2828011.9999999781</v>
+        <v>2753619.9999998426</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -554,7 +550,7 @@
         <v>6</v>
       </c>
       <c r="B13">
-        <v>101272558.00000021</v>
+        <v>104026178.00000006</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">

--- a/工作代码/每日报表/每日报表基础文件.xlsx
+++ b/工作代码/每日报表/每日报表基础文件.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20338"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3983E34A-8687-4D28-8EDA-8FB7F8FA5B41}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{377826E4-B2A8-4C64-B83D-16D900FFEE3E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="6840" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="7296" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -465,7 +465,7 @@
         <v>12</v>
       </c>
       <c r="B2">
-        <v>1128</v>
+        <v>1129</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -474,7 +474,7 @@
       </c>
       <c r="B3" s="1">
         <f ca="1">TODAY()-"1-1"</f>
-        <v>332</v>
+        <v>333</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -504,7 +504,7 @@
         <v>1</v>
       </c>
       <c r="B7" s="2">
-        <v>5684990.9999998035</v>
+        <v>5754762.9999998948</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -512,7 +512,7 @@
         <v>2</v>
       </c>
       <c r="B8" s="2">
-        <v>87252669.000000149</v>
+        <v>93007432.00000006</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -520,7 +520,7 @@
         <v>3</v>
       </c>
       <c r="B9" s="2">
-        <v>1245346034</v>
+        <v>1251100797</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -528,7 +528,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1196200.0000000116</v>
+        <v>1198799.9999999888</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -542,7 +542,7 @@
         <v>7</v>
       </c>
       <c r="B12">
-        <v>2753619.9999998426</v>
+        <v>2688353.0000000112</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -550,7 +550,7 @@
         <v>6</v>
       </c>
       <c r="B13">
-        <v>104026178.00000006</v>
+        <v>106714531.00000006</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">

--- a/工作代码/每日报表/每日报表基础文件.xlsx
+++ b/工作代码/每日报表/每日报表基础文件.xlsx
@@ -1,19 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20338"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21029"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{377826E4-B2A8-4C64-B83D-16D900FFEE3E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A52A625F-5DFF-4DE1-AD07-FE03FA44D397}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="7296" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="7290" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="179021"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -445,14 +450,14 @@
       <selection activeCell="A2" sqref="A2:B16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="18.88671875" customWidth="1"/>
+    <col min="1" max="1" width="18.875" customWidth="1"/>
     <col min="2" max="2" width="15" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>16</v>
       </c>
@@ -460,24 +465,24 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>12</v>
       </c>
       <c r="B2">
-        <v>1129</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+        <v>1130</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>0</v>
       </c>
       <c r="B3" s="1">
         <f ca="1">TODAY()-"1-1"</f>
-        <v>333</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>14</v>
       </c>
@@ -485,7 +490,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>13</v>
       </c>
@@ -493,51 +498,51 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
         <v>9</v>
       </c>
       <c r="B6" s="3"/>
     </row>
-    <row r="7" spans="1:2" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>1</v>
       </c>
       <c r="B7" s="2">
-        <v>5754762.9999998948</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+        <v>5384764.0000002356</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>2</v>
       </c>
       <c r="B8" s="2">
-        <v>93007432.00000006</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+        <v>98392196.000000298</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>3</v>
       </c>
       <c r="B9" s="2">
-        <v>1251100797</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+        <v>1256485561.0000002</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1198799.9999999888</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+        <v>1129600.00000003</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
         <v>10</v>
       </c>
       <c r="B11" s="3"/>
     </row>
-    <row r="12" spans="1:2" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>7</v>
       </c>
@@ -545,7 +550,7 @@
         <v>2688353.0000000112</v>
       </c>
     </row>
-    <row r="13" spans="1:2" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>6</v>
       </c>
@@ -553,13 +558,13 @@
         <v>106714531.00000006</v>
       </c>
     </row>
-    <row r="14" spans="1:2" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
         <v>11</v>
       </c>
       <c r="B14" s="3"/>
     </row>
-    <row r="15" spans="1:2" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>4</v>
       </c>
@@ -567,7 +572,7 @@
         <v>7500</v>
       </c>
     </row>
-    <row r="16" spans="1:2" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>5</v>
       </c>
@@ -575,10 +580,10 @@
         <v>130125</v>
       </c>
     </row>
-    <row r="17" ht="13.8" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="18" ht="13.8" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="19" ht="13.8" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="21" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="17" ht="13.9" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="18" ht="13.9" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="19" ht="13.9" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="21" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/工作代码/每日报表/每日报表基础文件.xlsx
+++ b/工作代码/每日报表/每日报表基础文件.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21029"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A52A625F-5DFF-4DE1-AD07-FE03FA44D397}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8288401-C23B-454A-AF99-FC92F13458D3}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="7290" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>昨天是今年第几天</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -96,6 +96,10 @@
   </si>
   <si>
     <t>num</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>否</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -447,7 +451,7 @@
   <dimension ref="A1:B21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:B16"/>
+      <selection activeCell="C5" sqref="C5:C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -470,7 +474,7 @@
         <v>12</v>
       </c>
       <c r="B2">
-        <v>1130</v>
+        <v>1201</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
@@ -479,7 +483,7 @@
       </c>
       <c r="B3" s="1">
         <f ca="1">TODAY()-"1-1"</f>
-        <v>334</v>
+        <v>335</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -487,7 +491,7 @@
         <v>14</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -509,7 +513,7 @@
         <v>1</v>
       </c>
       <c r="B7" s="2">
-        <v>5384764.0000002356</v>
+        <v>3581537.999999973</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -517,7 +521,7 @@
         <v>2</v>
       </c>
       <c r="B8" s="2">
-        <v>98392196.000000298</v>
+        <v>3581537.999999973</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -525,7 +529,7 @@
         <v>3</v>
       </c>
       <c r="B9" s="2">
-        <v>1256485561.0000002</v>
+        <v>1260067099.0000002</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -533,7 +537,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1129600.00000003</v>
+        <v>767199.99999995343</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -569,7 +573,7 @@
         <v>4</v>
       </c>
       <c r="B15">
-        <v>7500</v>
+        <v>7976</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">

--- a/工作代码/每日报表/每日报表基础文件.xlsx
+++ b/工作代码/每日报表/每日报表基础文件.xlsx
@@ -1,24 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20338"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8288401-C23B-454A-AF99-FC92F13458D3}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B269E1A9-97DD-460B-95B8-B49D26396C41}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="7290" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="8208" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="179021"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -451,17 +446,17 @@
   <dimension ref="A1:B21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5:C6"/>
+      <selection activeCell="A2" sqref="A2:B16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.875" customWidth="1"/>
+    <col min="1" max="1" width="18.88671875" customWidth="1"/>
     <col min="2" max="2" width="15" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>16</v>
       </c>
@@ -469,84 +464,84 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>12</v>
       </c>
       <c r="B2">
-        <v>1201</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+        <v>1202</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>0</v>
       </c>
       <c r="B3" s="1">
         <f ca="1">TODAY()-"1-1"</f>
-        <v>335</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>14</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>13</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>9</v>
       </c>
       <c r="B6" s="3"/>
     </row>
-    <row r="7" spans="1:2" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:2" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>1</v>
       </c>
       <c r="B7" s="2">
-        <v>3581537.999999973</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+        <v>2799860.0000000088</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>2</v>
       </c>
       <c r="B8" s="2">
-        <v>3581537.999999973</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+        <v>6381397.9999999814</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>3</v>
       </c>
       <c r="B9" s="2">
-        <v>1260067099.0000002</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+        <v>1262866959.0000002</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>767199.99999995343</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+        <v>590500</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>10</v>
       </c>
       <c r="B11" s="3"/>
     </row>
-    <row r="12" spans="1:2" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:2" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>7</v>
       </c>
@@ -554,7 +549,7 @@
         <v>2688353.0000000112</v>
       </c>
     </row>
-    <row r="13" spans="1:2" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:2" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>6</v>
       </c>
@@ -562,13 +557,13 @@
         <v>106714531.00000006</v>
       </c>
     </row>
-    <row r="14" spans="1:2" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:2" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>11</v>
       </c>
       <c r="B14" s="3"/>
     </row>
-    <row r="15" spans="1:2" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:2" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>4</v>
       </c>
@@ -576,7 +571,7 @@
         <v>7976</v>
       </c>
     </row>
-    <row r="16" spans="1:2" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:2" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>5</v>
       </c>
@@ -584,10 +579,10 @@
         <v>130125</v>
       </c>
     </row>
-    <row r="17" ht="13.9" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="18" ht="13.9" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="19" ht="13.9" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="21" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="17" ht="13.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="18" ht="13.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="19" ht="13.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="21" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/工作代码/每日报表/每日报表基础文件.xlsx
+++ b/工作代码/每日报表/每日报表基础文件.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20338"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B269E1A9-97DD-460B-95B8-B49D26396C41}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{740B3E31-E505-4BA7-BDC6-4424F57A8EFD}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="8208" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="9120" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -469,7 +469,7 @@
         <v>12</v>
       </c>
       <c r="B2">
-        <v>1202</v>
+        <v>1203</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -478,7 +478,7 @@
       </c>
       <c r="B3" s="1">
         <f ca="1">TODAY()-"1-1"</f>
-        <v>336</v>
+        <v>337</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -486,7 +486,7 @@
         <v>14</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -494,7 +494,7 @@
         <v>13</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -508,7 +508,7 @@
         <v>1</v>
       </c>
       <c r="B7" s="2">
-        <v>2799860.0000000088</v>
+        <v>2869547.0000000009</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -516,7 +516,7 @@
         <v>2</v>
       </c>
       <c r="B8" s="2">
-        <v>6381397.9999999814</v>
+        <v>9250944.9999999814</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -524,7 +524,7 @@
         <v>3</v>
       </c>
       <c r="B9" s="2">
-        <v>1262866959.0000002</v>
+        <v>1265736506.0000002</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -532,7 +532,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>590500</v>
+        <v>604200.00000001176</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">

--- a/工作代码/每日报表/每日报表基础文件.xlsx
+++ b/工作代码/每日报表/每日报表基础文件.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20338"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{740B3E31-E505-4BA7-BDC6-4424F57A8EFD}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4932C311-7A7D-4CB8-886F-A527469EC6DA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="9120" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="9576" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="18">
   <si>
     <t>昨天是今年第几天</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -91,10 +91,6 @@
   </si>
   <si>
     <t>num</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>否</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -102,9 +98,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="176" formatCode="0_ "/>
-  </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -157,10 +150,9 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
@@ -469,7 +461,7 @@
         <v>12</v>
       </c>
       <c r="B2">
-        <v>1203</v>
+        <v>1204</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -478,7 +470,7 @@
       </c>
       <c r="B3" s="1">
         <f ca="1">TODAY()-"1-1"</f>
-        <v>337</v>
+        <v>338</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -486,7 +478,7 @@
         <v>14</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -498,33 +490,33 @@
       </c>
     </row>
     <row r="6" spans="1:2" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
+      <c r="A6" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="3"/>
+      <c r="B6" s="2"/>
     </row>
     <row r="7" spans="1:2" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>1</v>
       </c>
-      <c r="B7" s="2">
-        <v>2869547.0000000009</v>
+      <c r="B7">
+        <v>5570617.000000013</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>2</v>
       </c>
-      <c r="B8" s="2">
-        <v>9250944.9999999814</v>
+      <c r="B8">
+        <v>14821561.999999996</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>3</v>
       </c>
-      <c r="B9" s="2">
-        <v>1265736506.0000002</v>
+      <c r="B9">
+        <v>1271307123.0000002</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -532,14 +524,14 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>604200.00000001176</v>
+        <v>1179700.0000000116</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="3" t="s">
+      <c r="A11" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="3"/>
+      <c r="B11" s="2"/>
     </row>
     <row r="12" spans="1:2" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
@@ -558,10 +550,10 @@
       </c>
     </row>
     <row r="14" spans="1:2" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="3" t="s">
+      <c r="A14" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B14" s="3"/>
+      <c r="B14" s="2"/>
     </row>
     <row r="15" spans="1:2" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">

--- a/工作代码/每日报表/每日报表基础文件.xlsx
+++ b/工作代码/每日报表/每日报表基础文件.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20338"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21029"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4932C311-7A7D-4CB8-886F-A527469EC6DA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{711FFF16-0957-47A8-BE2F-0286B88BE0C1}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="9576" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="10488" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="179021"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>昨天是今年第几天</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -91,6 +91,10 @@
   </si>
   <si>
     <t>num</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>否</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -461,7 +465,7 @@
         <v>12</v>
       </c>
       <c r="B2">
-        <v>1204</v>
+        <v>1205</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -470,7 +474,7 @@
       </c>
       <c r="B3" s="1">
         <f ca="1">TODAY()-"1-1"</f>
-        <v>338</v>
+        <v>339</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -478,7 +482,7 @@
         <v>14</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -500,7 +504,7 @@
         <v>1</v>
       </c>
       <c r="B7">
-        <v>5570617.000000013</v>
+        <v>2896714.9999999991</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -508,7 +512,7 @@
         <v>2</v>
       </c>
       <c r="B8">
-        <v>14821561.999999996</v>
+        <v>17718276.999999996</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -516,7 +520,7 @@
         <v>3</v>
       </c>
       <c r="B9">
-        <v>1271307123.0000002</v>
+        <v>1274203838.0000002</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -524,7 +528,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1179700.0000000116</v>
+        <v>606599.99999997672</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">

--- a/工作代码/每日报表/每日报表基础文件.xlsx
+++ b/工作代码/每日报表/每日报表基础文件.xlsx
@@ -3,12 +3,13 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21029"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{711FFF16-0957-47A8-BE2F-0286B88BE0C1}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1941148D-3FA5-4E9A-BD39-36191E16E481}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="10488" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="11856" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -20,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
   <si>
     <t>昨天是今年第几天</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -95,6 +96,37 @@
   </si>
   <si>
     <t>否</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>今天情况</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>今日日期</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>今日发电情况</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>5、6号机组运行、7、8号机组停备</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>7、8号机组运行、5、6号机组停备</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>5、6、7、8号机组运行</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>5、6、7、8号机组全部停备</t>
+  </si>
+  <si>
+    <t>5、6、7、8号机组全部停备</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -102,6 +134,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="176" formatCode="m&quot;月&quot;d&quot;日&quot;;@"/>
+  </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -154,10 +189,11 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyAlignment="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -442,13 +478,13 @@
   <dimension ref="A1:B21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:B16"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="18.88671875" customWidth="1"/>
-    <col min="2" max="2" width="15" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="30.33203125" customWidth="1"/>
     <col min="3" max="3" width="11.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -464,8 +500,9 @@
       <c r="A2" t="s">
         <v>12</v>
       </c>
-      <c r="B2">
-        <v>1205</v>
+      <c r="B2" s="3">
+        <f ca="1">TODAY()-1</f>
+        <v>43440</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -474,7 +511,7 @@
       </c>
       <c r="B3" s="1">
         <f ca="1">TODAY()-"1-1"</f>
-        <v>339</v>
+        <v>340</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -504,7 +541,7 @@
         <v>1</v>
       </c>
       <c r="B7">
-        <v>2896714.9999999991</v>
+        <v>2888530</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -512,7 +549,7 @@
         <v>2</v>
       </c>
       <c r="B8">
-        <v>17718276.999999996</v>
+        <v>20606806.999999996</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -520,7 +557,7 @@
         <v>3</v>
       </c>
       <c r="B9">
-        <v>1274203838.0000002</v>
+        <v>1277092368.0000002</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -528,7 +565,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>606599.99999997672</v>
+        <v>605300.00000004657</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -575,13 +612,84 @@
         <v>130125</v>
       </c>
     </row>
-    <row r="17" ht="13.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="18" ht="13.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="19" ht="13.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="21" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="17" spans="1:2" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B17" s="2"/>
+    </row>
+    <row r="18" spans="1:2" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>20</v>
+      </c>
+      <c r="B18" s="3">
+        <f ca="1">TODAY()</f>
+        <v>43441</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>21</v>
+      </c>
+      <c r="B19" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{091474DD-75E8-4B77-B211-87D245E3B45C}">
+          <x14:formula1>
+            <xm:f>Sheet2!$A$1:$A$4</xm:f>
+          </x14:formula1>
+          <xm:sqref>B19</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8859FBFC-D926-4692-9083-5E43F5427244}">
+  <dimension ref="A1:A4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="33.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/工作代码/每日报表/每日报表基础文件.xlsx
+++ b/工作代码/每日报表/每日报表基础文件.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21029"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1941148D-3FA5-4E9A-BD39-36191E16E481}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6A4BAC1-05D8-45EE-8364-E58B841A8DD0}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="11856" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="12768" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="26">
   <si>
     <t>昨天是今年第几天</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -95,10 +95,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>否</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>今天情况</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -124,10 +120,10 @@
   </si>
   <si>
     <t>5、6、7、8号机组全部停备</t>
-  </si>
-  <si>
-    <t>5、6、7、8号机组全部停备</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>7、8号机组运行、5、6号机组停备</t>
   </si>
 </sst>
 </file>
@@ -477,8 +473,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -502,7 +498,7 @@
       </c>
       <c r="B2" s="3">
         <f ca="1">TODAY()-1</f>
-        <v>43440</v>
+        <v>43441</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -511,7 +507,7 @@
       </c>
       <c r="B3" s="1">
         <f ca="1">TODAY()-"1-1"</f>
-        <v>340</v>
+        <v>341</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -519,7 +515,7 @@
         <v>14</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -541,7 +537,7 @@
         <v>1</v>
       </c>
       <c r="B7">
-        <v>2888530</v>
+        <v>5858593.9999999702</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -549,7 +545,7 @@
         <v>2</v>
       </c>
       <c r="B8">
-        <v>20606806.999999996</v>
+        <v>26465401</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -557,7 +553,7 @@
         <v>3</v>
       </c>
       <c r="B9">
-        <v>1277092368.0000002</v>
+        <v>1282950962</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -565,7 +561,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>605300.00000004657</v>
+        <v>1208799.99999999</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -614,22 +610,22 @@
     </row>
     <row r="17" spans="1:2" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B17" s="2"/>
     </row>
     <row r="18" spans="1:2" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B18" s="3">
         <f ca="1">TODAY()</f>
-        <v>43441</v>
+        <v>43442</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B19" t="s">
         <v>25</v>
@@ -670,22 +666,22 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>

--- a/工作代码/每日报表/每日报表基础文件.xlsx
+++ b/工作代码/每日报表/每日报表基础文件.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21029"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6A4BAC1-05D8-45EE-8364-E58B841A8DD0}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F742F94-E564-4E23-B923-92A2E9E3990A}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="12768" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="13224" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
   <si>
     <t>昨天是今年第几天</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -123,7 +123,11 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>7、8号机组运行、5、6号机组停备</t>
+    <t>否</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>5、6号机组运行、7、8号机组停备</t>
   </si>
 </sst>
 </file>
@@ -473,8 +477,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -498,7 +502,7 @@
       </c>
       <c r="B2" s="3">
         <f ca="1">TODAY()-1</f>
-        <v>43441</v>
+        <v>43443</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -507,7 +511,7 @@
       </c>
       <c r="B3" s="1">
         <f ca="1">TODAY()-"1-1"</f>
-        <v>341</v>
+        <v>343</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -515,7 +519,7 @@
         <v>14</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -537,7 +541,7 @@
         <v>1</v>
       </c>
       <c r="B7">
-        <v>5858593.9999999702</v>
+        <v>3008759.0000000009</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -545,7 +549,7 @@
         <v>2</v>
       </c>
       <c r="B8">
-        <v>26465401</v>
+        <v>32465568.999999993</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -553,7 +557,7 @@
         <v>3</v>
       </c>
       <c r="B9">
-        <v>1282950962</v>
+        <v>1288951130.0000002</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -561,7 +565,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1208799.99999999</v>
+        <v>633700.00000001164</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -620,7 +624,7 @@
       </c>
       <c r="B18" s="3">
         <f ca="1">TODAY()</f>
-        <v>43442</v>
+        <v>43444</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -628,7 +632,7 @@
         <v>20</v>
       </c>
       <c r="B19" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>

--- a/工作代码/每日报表/每日报表基础文件.xlsx
+++ b/工作代码/每日报表/每日报表基础文件.xlsx
@@ -3,25 +3,30 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21029"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6A4BAC1-05D8-45EE-8364-E58B841A8DD0}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C08ECBEC-021B-4493-8BAF-62CAFA198297}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="12768" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="12765" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
   <si>
     <t>昨天是今年第几天</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -123,7 +128,11 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>7、8号机组运行、5、6号机组停备</t>
+    <t>5、6号机组运行、7、8号机组停备</t>
+  </si>
+  <si>
+    <t>否</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -473,18 +482,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="18.88671875" customWidth="1"/>
-    <col min="2" max="2" width="30.33203125" customWidth="1"/>
-    <col min="3" max="3" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.875" customWidth="1"/>
+    <col min="2" max="2" width="30.375" customWidth="1"/>
+    <col min="3" max="3" width="11.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>16</v>
       </c>
@@ -492,25 +501,25 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>12</v>
       </c>
       <c r="B2" s="3">
         <f ca="1">TODAY()-1</f>
-        <v>43441</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+        <v>43442</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>0</v>
       </c>
       <c r="B3" s="1">
         <f ca="1">TODAY()-"1-1"</f>
-        <v>341</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>14</v>
       </c>
@@ -518,59 +527,59 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>13</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>9</v>
       </c>
       <c r="B6" s="2"/>
     </row>
-    <row r="7" spans="1:2" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>1</v>
       </c>
       <c r="B7">
-        <v>5858593.9999999702</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+        <v>2991409.0000000261</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>2</v>
       </c>
       <c r="B8">
-        <v>26465401</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+        <v>29456809.999999993</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>3</v>
       </c>
       <c r="B9">
-        <v>1282950962</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+        <v>1285942371.0000002</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1208799.99999999</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+        <v>628000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B11" s="2"/>
     </row>
-    <row r="12" spans="1:2" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>7</v>
       </c>
@@ -578,7 +587,7 @@
         <v>2688353.0000000112</v>
       </c>
     </row>
-    <row r="13" spans="1:2" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>6</v>
       </c>
@@ -586,13 +595,13 @@
         <v>106714531.00000006</v>
       </c>
     </row>
-    <row r="14" spans="1:2" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B14" s="2"/>
     </row>
-    <row r="15" spans="1:2" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>4</v>
       </c>
@@ -600,7 +609,7 @@
         <v>7976</v>
       </c>
     </row>
-    <row r="16" spans="1:2" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>5</v>
       </c>
@@ -608,22 +617,22 @@
         <v>130125</v>
       </c>
     </row>
-    <row r="17" spans="1:2" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
         <v>18</v>
       </c>
       <c r="B17" s="2"/>
     </row>
-    <row r="18" spans="1:2" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>19</v>
       </c>
       <c r="B18" s="3">
         <f ca="1">TODAY()</f>
-        <v>43442</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+        <v>43443</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>20</v>
       </c>
@@ -631,7 +640,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="21" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="21" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -659,27 +668,27 @@
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="33.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="33.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>22</v>
       </c>

--- a/工作代码/每日报表/每日报表基础文件.xlsx
+++ b/工作代码/每日报表/每日报表基础文件.xlsx
@@ -3,25 +3,30 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21029"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F742F94-E564-4E23-B923-92A2E9E3990A}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35C49E0C-D37F-4472-86CD-E572CF0816F1}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="13224" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="13230" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="26">
   <si>
     <t>昨天是今年第几天</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -123,11 +128,7 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>否</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>5、6号机组运行、7、8号机组停备</t>
+    <t>5、6、7、8号机组运行</t>
   </si>
 </sst>
 </file>
@@ -478,17 +479,17 @@
   <dimension ref="A1:B21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="18.88671875" customWidth="1"/>
-    <col min="2" max="2" width="30.33203125" customWidth="1"/>
-    <col min="3" max="3" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.875" customWidth="1"/>
+    <col min="2" max="2" width="30.375" customWidth="1"/>
+    <col min="3" max="3" width="11.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>16</v>
       </c>
@@ -496,33 +497,33 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>12</v>
       </c>
       <c r="B2" s="3">
         <f ca="1">TODAY()-1</f>
-        <v>43443</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+        <v>43444</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>0</v>
       </c>
       <c r="B3" s="1">
         <f ca="1">TODAY()-"1-1"</f>
-        <v>343</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>14</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>13</v>
       </c>
@@ -530,51 +531,51 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>9</v>
       </c>
       <c r="B6" s="2"/>
     </row>
-    <row r="7" spans="1:2" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>1</v>
       </c>
       <c r="B7">
-        <v>3008759.0000000009</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+        <v>5092394.0000000112</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>2</v>
       </c>
       <c r="B8">
-        <v>32465568.999999993</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+        <v>37557963</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>3</v>
       </c>
       <c r="B9">
-        <v>1288951130.0000002</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+        <v>1294043524.0000002</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>633700.00000001164</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+        <v>1082799.9999999888</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B11" s="2"/>
     </row>
-    <row r="12" spans="1:2" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>7</v>
       </c>
@@ -582,7 +583,7 @@
         <v>2688353.0000000112</v>
       </c>
     </row>
-    <row r="13" spans="1:2" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>6</v>
       </c>
@@ -590,13 +591,13 @@
         <v>106714531.00000006</v>
       </c>
     </row>
-    <row r="14" spans="1:2" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B14" s="2"/>
     </row>
-    <row r="15" spans="1:2" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>4</v>
       </c>
@@ -604,7 +605,7 @@
         <v>7976</v>
       </c>
     </row>
-    <row r="16" spans="1:2" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>5</v>
       </c>
@@ -612,30 +613,30 @@
         <v>130125</v>
       </c>
     </row>
-    <row r="17" spans="1:2" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
         <v>18</v>
       </c>
       <c r="B17" s="2"/>
     </row>
-    <row r="18" spans="1:2" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>19</v>
       </c>
       <c r="B18" s="3">
         <f ca="1">TODAY()</f>
-        <v>43444</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+        <v>43445</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>20</v>
       </c>
       <c r="B19" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -663,27 +664,27 @@
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="33.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="33.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>22</v>
       </c>

--- a/工作代码/每日报表/每日报表基础文件.xlsx
+++ b/工作代码/每日报表/每日报表基础文件.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21029"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35C49E0C-D37F-4472-86CD-E572CF0816F1}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D238D714-5189-4D6D-85E5-1E93CB857F19}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="13230" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -479,7 +479,7 @@
   <dimension ref="A1:B21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -503,7 +503,7 @@
       </c>
       <c r="B2" s="3">
         <f ca="1">TODAY()-1</f>
-        <v>43444</v>
+        <v>43445</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
@@ -512,7 +512,7 @@
       </c>
       <c r="B3" s="1">
         <f ca="1">TODAY()-"1-1"</f>
-        <v>344</v>
+        <v>345</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -542,7 +542,7 @@
         <v>1</v>
       </c>
       <c r="B7">
-        <v>5092394.0000000112</v>
+        <v>5774165.9999999907</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -550,7 +550,7 @@
         <v>2</v>
       </c>
       <c r="B8">
-        <v>37557963</v>
+        <v>43332129</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -558,7 +558,7 @@
         <v>3</v>
       </c>
       <c r="B9">
-        <v>1294043524.0000002</v>
+        <v>1299817690.0000002</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -566,7 +566,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1082799.9999999888</v>
+        <v>1191099.9999999776</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -625,7 +625,7 @@
       </c>
       <c r="B18" s="3">
         <f ca="1">TODAY()</f>
-        <v>43445</v>
+        <v>43446</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">

--- a/工作代码/每日报表/每日报表基础文件.xlsx
+++ b/工作代码/每日报表/每日报表基础文件.xlsx
@@ -3,23 +3,18 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21029"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D238D714-5189-4D6D-85E5-1E93CB857F19}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{500B2248-6A27-484A-A8BE-1769289EBA6C}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="13230" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="13692" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -128,7 +123,7 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>5、6、7、8号机组运行</t>
+    <t>5、6号机组运行、7、8号机组停备</t>
   </si>
 </sst>
 </file>
@@ -479,17 +474,17 @@
   <dimension ref="A1:B21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.875" customWidth="1"/>
-    <col min="2" max="2" width="30.375" customWidth="1"/>
-    <col min="3" max="3" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.88671875" customWidth="1"/>
+    <col min="2" max="2" width="30.33203125" customWidth="1"/>
+    <col min="3" max="3" width="11.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>16</v>
       </c>
@@ -497,25 +492,25 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>12</v>
       </c>
       <c r="B2" s="3">
         <f ca="1">TODAY()-1</f>
-        <v>43445</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+        <v>43446</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>0</v>
       </c>
       <c r="B3" s="1">
         <f ca="1">TODAY()-"1-1"</f>
-        <v>345</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>14</v>
       </c>
@@ -523,7 +518,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>13</v>
       </c>
@@ -531,51 +526,51 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>9</v>
       </c>
       <c r="B6" s="2"/>
     </row>
-    <row r="7" spans="1:2" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:2" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>1</v>
       </c>
       <c r="B7">
-        <v>5774165.9999999907</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+        <v>4055346.999999966</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>2</v>
       </c>
       <c r="B8">
-        <v>43332129</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+        <v>47387475.999999963</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>3</v>
       </c>
       <c r="B9">
-        <v>1299817690.0000002</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+        <v>1303873037.0000002</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1191099.9999999776</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+        <v>866000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B11" s="2"/>
     </row>
-    <row r="12" spans="1:2" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:2" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>7</v>
       </c>
@@ -583,7 +578,7 @@
         <v>2688353.0000000112</v>
       </c>
     </row>
-    <row r="13" spans="1:2" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:2" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>6</v>
       </c>
@@ -591,13 +586,13 @@
         <v>106714531.00000006</v>
       </c>
     </row>
-    <row r="14" spans="1:2" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:2" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B14" s="2"/>
     </row>
-    <row r="15" spans="1:2" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:2" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>4</v>
       </c>
@@ -605,7 +600,7 @@
         <v>7976</v>
       </c>
     </row>
-    <row r="16" spans="1:2" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:2" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>5</v>
       </c>
@@ -613,22 +608,22 @@
         <v>130125</v>
       </c>
     </row>
-    <row r="17" spans="1:2" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:2" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>18</v>
       </c>
       <c r="B17" s="2"/>
     </row>
-    <row r="18" spans="1:2" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:2" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>19</v>
       </c>
       <c r="B18" s="3">
         <f ca="1">TODAY()</f>
-        <v>43446</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+        <v>43447</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>20</v>
       </c>
@@ -636,7 +631,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="21" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="21" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -664,27 +659,27 @@
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="33.625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="33.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>22</v>
       </c>

--- a/工作代码/每日报表/每日报表基础文件.xlsx
+++ b/工作代码/每日报表/每日报表基础文件.xlsx
@@ -3,25 +3,30 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21029"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{500B2248-6A27-484A-A8BE-1769289EBA6C}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{224CCDB1-8B02-4C24-89BA-73EE8889582B}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="13692" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="13695" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
   <si>
     <t>昨天是今年第几天</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -123,7 +128,11 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>5、6号机组运行、7、8号机组停备</t>
+    <t>否</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>5、6、7、8号机组全部停备</t>
   </si>
 </sst>
 </file>
@@ -474,17 +483,17 @@
   <dimension ref="A1:B21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="18.88671875" customWidth="1"/>
-    <col min="2" max="2" width="30.33203125" customWidth="1"/>
-    <col min="3" max="3" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.875" customWidth="1"/>
+    <col min="2" max="2" width="30.375" customWidth="1"/>
+    <col min="3" max="3" width="11.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>16</v>
       </c>
@@ -492,33 +501,33 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>12</v>
       </c>
       <c r="B2" s="3">
         <f ca="1">TODAY()-1</f>
-        <v>43446</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+        <v>43448</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>0</v>
       </c>
       <c r="B3" s="1">
         <f ca="1">TODAY()-"1-1"</f>
-        <v>346</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>14</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>13</v>
       </c>
@@ -526,51 +535,51 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>9</v>
       </c>
       <c r="B6" s="2"/>
     </row>
-    <row r="7" spans="1:2" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>1</v>
       </c>
       <c r="B7">
-        <v>4055346.999999966</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+        <v>3027658.9999999991</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>2</v>
       </c>
       <c r="B8">
-        <v>47387475.999999963</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+        <v>53319835.999999963</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>3</v>
       </c>
       <c r="B9">
-        <v>1303873037.0000002</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+        <v>1309805397.0000002</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>866000</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+        <v>637200.00000001118</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B11" s="2"/>
     </row>
-    <row r="12" spans="1:2" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>7</v>
       </c>
@@ -578,7 +587,7 @@
         <v>2688353.0000000112</v>
       </c>
     </row>
-    <row r="13" spans="1:2" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>6</v>
       </c>
@@ -586,13 +595,13 @@
         <v>106714531.00000006</v>
       </c>
     </row>
-    <row r="14" spans="1:2" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B14" s="2"/>
     </row>
-    <row r="15" spans="1:2" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>4</v>
       </c>
@@ -600,7 +609,7 @@
         <v>7976</v>
       </c>
     </row>
-    <row r="16" spans="1:2" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>5</v>
       </c>
@@ -608,30 +617,30 @@
         <v>130125</v>
       </c>
     </row>
-    <row r="17" spans="1:2" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
         <v>18</v>
       </c>
       <c r="B17" s="2"/>
     </row>
-    <row r="18" spans="1:2" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>19</v>
       </c>
       <c r="B18" s="3">
         <f ca="1">TODAY()</f>
-        <v>43447</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+        <v>43449</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>20</v>
       </c>
       <c r="B19" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+        <v>26</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -659,27 +668,27 @@
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="33.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="33.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>22</v>
       </c>

--- a/工作代码/每日报表/每日报表基础文件.xlsx
+++ b/工作代码/每日报表/每日报表基础文件.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21029"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{224CCDB1-8B02-4C24-89BA-73EE8889582B}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C5723C0-73AE-4058-81C4-C7435AAC068B}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="13695" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="26">
   <si>
     <t>昨天是今年第几天</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -85,10 +85,6 @@
   </si>
   <si>
     <t>7,8机组是否运行</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>是</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -483,7 +479,7 @@
   <dimension ref="A1:B21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -495,10 +491,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" t="s">
         <v>16</v>
-      </c>
-      <c r="B1" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
@@ -507,7 +503,7 @@
       </c>
       <c r="B2" s="3">
         <f ca="1">TODAY()-1</f>
-        <v>43448</v>
+        <v>43449</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
@@ -516,7 +512,7 @@
       </c>
       <c r="B3" s="1">
         <f ca="1">TODAY()-"1-1"</f>
-        <v>348</v>
+        <v>349</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -524,7 +520,7 @@
         <v>14</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -532,7 +528,7 @@
         <v>13</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -546,7 +542,7 @@
         <v>1</v>
       </c>
       <c r="B7">
-        <v>3027658.9999999991</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -570,7 +566,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>637200.00000001118</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -619,25 +615,25 @@
     </row>
     <row r="17" spans="1:2" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B17" s="2"/>
     </row>
     <row r="18" spans="1:2" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B18" s="3">
         <f ca="1">TODAY()</f>
-        <v>43449</v>
+        <v>43450</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B19" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -675,22 +671,22 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>

--- a/工作代码/每日报表/每日报表基础文件.xlsx
+++ b/工作代码/每日报表/每日报表基础文件.xlsx
@@ -3,25 +3,30 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21029"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{500B2248-6A27-484A-A8BE-1769289EBA6C}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DFF3EB9-94A3-42FB-98D7-3EBD6AFE4672}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="13692" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="14148" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
   <si>
     <t>昨天是今年第几天</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -124,6 +129,10 @@
   </si>
   <si>
     <t>5、6号机组运行、7、8号机组停备</t>
+  </si>
+  <si>
+    <t>否</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -474,7 +483,7 @@
   <dimension ref="A1:B21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="B7" sqref="B7:B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -498,7 +507,7 @@
       </c>
       <c r="B2" s="3">
         <f ca="1">TODAY()-1</f>
-        <v>43446</v>
+        <v>43447</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -507,7 +516,7 @@
       </c>
       <c r="B3" s="1">
         <f ca="1">TODAY()-"1-1"</f>
-        <v>346</v>
+        <v>347</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -515,7 +524,7 @@
         <v>14</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>15</v>
+        <v>26</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -537,7 +546,7 @@
         <v>1</v>
       </c>
       <c r="B7">
-        <v>4055346.999999966</v>
+        <v>2904700.9999999995</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -545,7 +554,7 @@
         <v>2</v>
       </c>
       <c r="B8">
-        <v>47387475.999999963</v>
+        <v>50292176.999999963</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -553,7 +562,7 @@
         <v>3</v>
       </c>
       <c r="B9">
-        <v>1303873037.0000002</v>
+        <v>1306777738.0000002</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -561,7 +570,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>866000</v>
+        <v>614299.99999998882</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -620,7 +629,7 @@
       </c>
       <c r="B18" s="3">
         <f ca="1">TODAY()</f>
-        <v>43447</v>
+        <v>43448</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">

--- a/工作代码/每日报表/每日报表基础文件.xlsx
+++ b/工作代码/每日报表/每日报表基础文件.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21029"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C5723C0-73AE-4058-81C4-C7435AAC068B}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48A73CBD-0051-4DE6-A0A9-3A8522ABBC8E}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="13695" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="14148" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -479,17 +479,17 @@
   <dimension ref="A1:B21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.875" customWidth="1"/>
-    <col min="2" max="2" width="30.375" customWidth="1"/>
-    <col min="3" max="3" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.88671875" customWidth="1"/>
+    <col min="2" max="2" width="30.33203125" customWidth="1"/>
+    <col min="3" max="3" width="11.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>15</v>
       </c>
@@ -497,25 +497,25 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>12</v>
       </c>
       <c r="B2" s="3">
         <f ca="1">TODAY()-1</f>
-        <v>43449</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+        <v>43450</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>0</v>
       </c>
       <c r="B3" s="1">
         <f ca="1">TODAY()-"1-1"</f>
-        <v>349</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>14</v>
       </c>
@@ -523,7 +523,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>13</v>
       </c>
@@ -531,13 +531,13 @@
         <v>24</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>9</v>
       </c>
       <c r="B6" s="2"/>
     </row>
-    <row r="7" spans="1:2" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:2" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>1</v>
       </c>
@@ -545,7 +545,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:2" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>2</v>
       </c>
@@ -553,7 +553,7 @@
         <v>53319835.999999963</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:2" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>3</v>
       </c>
@@ -561,7 +561,7 @@
         <v>1309805397.0000002</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:2" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -569,13 +569,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:2" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B11" s="2"/>
     </row>
-    <row r="12" spans="1:2" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:2" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>7</v>
       </c>
@@ -583,7 +583,7 @@
         <v>2688353.0000000112</v>
       </c>
     </row>
-    <row r="13" spans="1:2" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:2" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>6</v>
       </c>
@@ -591,13 +591,13 @@
         <v>106714531.00000006</v>
       </c>
     </row>
-    <row r="14" spans="1:2" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:2" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B14" s="2"/>
     </row>
-    <row r="15" spans="1:2" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:2" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>4</v>
       </c>
@@ -605,7 +605,7 @@
         <v>7976</v>
       </c>
     </row>
-    <row r="16" spans="1:2" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:2" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>5</v>
       </c>
@@ -613,22 +613,22 @@
         <v>130125</v>
       </c>
     </row>
-    <row r="17" spans="1:2" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:2" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>17</v>
       </c>
       <c r="B17" s="2"/>
     </row>
-    <row r="18" spans="1:2" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:2" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>18</v>
       </c>
       <c r="B18" s="3">
         <f ca="1">TODAY()</f>
-        <v>43450</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+        <v>43451</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>19</v>
       </c>
@@ -636,7 +636,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="21" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="21" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -664,27 +664,27 @@
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="33.625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="33.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>21</v>
       </c>

--- a/工作代码/每日报表/每日报表基础文件.xlsx
+++ b/工作代码/每日报表/每日报表基础文件.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21029"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48A73CBD-0051-4DE6-A0A9-3A8522ABBC8E}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE337800-A085-4832-BAAA-4A3D534D0AF7}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="14148" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="14604" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -479,7 +479,7 @@
   <dimension ref="A1:B21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -503,7 +503,7 @@
       </c>
       <c r="B2" s="3">
         <f ca="1">TODAY()-1</f>
-        <v>43450</v>
+        <v>43452</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -512,7 +512,7 @@
       </c>
       <c r="B3" s="1">
         <f ca="1">TODAY()-"1-1"</f>
-        <v>350</v>
+        <v>352</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -625,7 +625,7 @@
       </c>
       <c r="B18" s="3">
         <f ca="1">TODAY()</f>
-        <v>43451</v>
+        <v>43453</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">

--- a/工作代码/每日报表/每日报表基础文件.xlsx
+++ b/工作代码/每日报表/每日报表基础文件.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21029"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE337800-A085-4832-BAAA-4A3D534D0AF7}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9759247C-884E-464E-BAB3-27308D65F624}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="14604" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="15516" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -479,7 +479,7 @@
   <dimension ref="A1:B21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -503,7 +503,7 @@
       </c>
       <c r="B2" s="3">
         <f ca="1">TODAY()-1</f>
-        <v>43452</v>
+        <v>43453</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -512,7 +512,7 @@
       </c>
       <c r="B3" s="1">
         <f ca="1">TODAY()-"1-1"</f>
-        <v>352</v>
+        <v>353</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -625,7 +625,7 @@
       </c>
       <c r="B18" s="3">
         <f ca="1">TODAY()</f>
-        <v>43453</v>
+        <v>43454</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">

--- a/工作代码/每日报表/每日报表基础文件.xlsx
+++ b/工作代码/每日报表/每日报表基础文件.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21029"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9759247C-884E-464E-BAB3-27308D65F624}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46028482-CA4D-4EEA-853F-DEE2CA1C4D44}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="15516" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="15972" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -479,7 +479,7 @@
   <dimension ref="A1:B21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -503,7 +503,7 @@
       </c>
       <c r="B2" s="3">
         <f ca="1">TODAY()-1</f>
-        <v>43453</v>
+        <v>43454</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -512,7 +512,7 @@
       </c>
       <c r="B3" s="1">
         <f ca="1">TODAY()-"1-1"</f>
-        <v>353</v>
+        <v>354</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -625,7 +625,7 @@
       </c>
       <c r="B18" s="3">
         <f ca="1">TODAY()</f>
-        <v>43454</v>
+        <v>43455</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">

--- a/工作代码/每日报表/每日报表基础文件.xlsx
+++ b/工作代码/每日报表/每日报表基础文件.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21029"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46028482-CA4D-4EEA-853F-DEE2CA1C4D44}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9FE97FB-F8A4-4060-91D3-58A23D9CF055}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="15972" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="15975" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -15,11 +15,6 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -479,17 +474,17 @@
   <dimension ref="A1:B21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="18.88671875" customWidth="1"/>
-    <col min="2" max="2" width="30.33203125" customWidth="1"/>
-    <col min="3" max="3" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.875" customWidth="1"/>
+    <col min="2" max="2" width="30.375" customWidth="1"/>
+    <col min="3" max="3" width="11.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>15</v>
       </c>
@@ -497,25 +492,25 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>12</v>
       </c>
       <c r="B2" s="3">
         <f ca="1">TODAY()-1</f>
-        <v>43454</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+        <v>43456</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>0</v>
       </c>
       <c r="B3" s="1">
         <f ca="1">TODAY()-"1-1"</f>
-        <v>354</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>14</v>
       </c>
@@ -523,7 +518,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>13</v>
       </c>
@@ -531,13 +526,13 @@
         <v>24</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>9</v>
       </c>
       <c r="B6" s="2"/>
     </row>
-    <row r="7" spans="1:2" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>1</v>
       </c>
@@ -545,7 +540,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>2</v>
       </c>
@@ -553,7 +548,7 @@
         <v>53319835.999999963</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>3</v>
       </c>
@@ -561,7 +556,7 @@
         <v>1309805397.0000002</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -569,13 +564,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B11" s="2"/>
     </row>
-    <row r="12" spans="1:2" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>7</v>
       </c>
@@ -583,7 +578,7 @@
         <v>2688353.0000000112</v>
       </c>
     </row>
-    <row r="13" spans="1:2" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>6</v>
       </c>
@@ -591,13 +586,13 @@
         <v>106714531.00000006</v>
       </c>
     </row>
-    <row r="14" spans="1:2" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B14" s="2"/>
     </row>
-    <row r="15" spans="1:2" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>4</v>
       </c>
@@ -605,7 +600,7 @@
         <v>7976</v>
       </c>
     </row>
-    <row r="16" spans="1:2" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>5</v>
       </c>
@@ -613,22 +608,22 @@
         <v>130125</v>
       </c>
     </row>
-    <row r="17" spans="1:2" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
         <v>17</v>
       </c>
       <c r="B17" s="2"/>
     </row>
-    <row r="18" spans="1:2" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>18</v>
       </c>
       <c r="B18" s="3">
         <f ca="1">TODAY()</f>
-        <v>43455</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+        <v>43457</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>19</v>
       </c>
@@ -636,7 +631,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="21" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="21" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -664,27 +659,27 @@
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="33.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="33.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>21</v>
       </c>

--- a/工作代码/每日报表/每日报表基础文件.xlsx
+++ b/工作代码/每日报表/每日报表基础文件.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21029"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9FE97FB-F8A4-4060-91D3-58A23D9CF055}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2CC24A3-F421-4459-9CDF-A32E8911141D}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="15975" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="16428" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -15,6 +15,11 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -477,14 +482,14 @@
       <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.875" customWidth="1"/>
-    <col min="2" max="2" width="30.375" customWidth="1"/>
-    <col min="3" max="3" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.88671875" customWidth="1"/>
+    <col min="2" max="2" width="30.33203125" customWidth="1"/>
+    <col min="3" max="3" width="11.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>15</v>
       </c>
@@ -492,25 +497,25 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>12</v>
       </c>
       <c r="B2" s="3">
         <f ca="1">TODAY()-1</f>
-        <v>43456</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+        <v>43457</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>0</v>
       </c>
       <c r="B3" s="1">
         <f ca="1">TODAY()-"1-1"</f>
-        <v>356</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>14</v>
       </c>
@@ -518,7 +523,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>13</v>
       </c>
@@ -526,13 +531,13 @@
         <v>24</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>9</v>
       </c>
       <c r="B6" s="2"/>
     </row>
-    <row r="7" spans="1:2" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:2" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>1</v>
       </c>
@@ -540,7 +545,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:2" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>2</v>
       </c>
@@ -548,7 +553,7 @@
         <v>53319835.999999963</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:2" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>3</v>
       </c>
@@ -556,7 +561,7 @@
         <v>1309805397.0000002</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:2" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -564,13 +569,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:2" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B11" s="2"/>
     </row>
-    <row r="12" spans="1:2" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:2" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>7</v>
       </c>
@@ -578,7 +583,7 @@
         <v>2688353.0000000112</v>
       </c>
     </row>
-    <row r="13" spans="1:2" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:2" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>6</v>
       </c>
@@ -586,13 +591,13 @@
         <v>106714531.00000006</v>
       </c>
     </row>
-    <row r="14" spans="1:2" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:2" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B14" s="2"/>
     </row>
-    <row r="15" spans="1:2" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:2" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>4</v>
       </c>
@@ -600,7 +605,7 @@
         <v>7976</v>
       </c>
     </row>
-    <row r="16" spans="1:2" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:2" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>5</v>
       </c>
@@ -608,22 +613,22 @@
         <v>130125</v>
       </c>
     </row>
-    <row r="17" spans="1:2" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:2" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>17</v>
       </c>
       <c r="B17" s="2"/>
     </row>
-    <row r="18" spans="1:2" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:2" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>18</v>
       </c>
       <c r="B18" s="3">
         <f ca="1">TODAY()</f>
-        <v>43457</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+        <v>43458</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>19</v>
       </c>
@@ -631,7 +636,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="21" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="21" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -659,27 +664,27 @@
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="33.625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="33.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>21</v>
       </c>

--- a/工作代码/每日报表/每日报表基础文件.xlsx
+++ b/工作代码/每日报表/每日报表基础文件.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21029"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2CC24A3-F421-4459-9CDF-A32E8911141D}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59E05750-EF08-4798-9EFD-C9B59B46F9CA}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="16428" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="16884" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -479,7 +479,7 @@
   <dimension ref="A1:B21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -503,7 +503,7 @@
       </c>
       <c r="B2" s="3">
         <f ca="1">TODAY()-1</f>
-        <v>43457</v>
+        <v>43458</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -512,7 +512,7 @@
       </c>
       <c r="B3" s="1">
         <f ca="1">TODAY()-"1-1"</f>
-        <v>357</v>
+        <v>358</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -625,7 +625,7 @@
       </c>
       <c r="B18" s="3">
         <f ca="1">TODAY()</f>
-        <v>43458</v>
+        <v>43459</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">

--- a/工作代码/每日报表/每日报表基础文件.xlsx
+++ b/工作代码/每日报表/每日报表基础文件.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21029"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59E05750-EF08-4798-9EFD-C9B59B46F9CA}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FAD3DB3-883B-46FB-B43A-F8F63B508CD3}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="16884" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="17340" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -479,7 +479,7 @@
   <dimension ref="A1:B21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -503,7 +503,7 @@
       </c>
       <c r="B2" s="3">
         <f ca="1">TODAY()-1</f>
-        <v>43458</v>
+        <v>43460</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -512,7 +512,7 @@
       </c>
       <c r="B3" s="1">
         <f ca="1">TODAY()-"1-1"</f>
-        <v>358</v>
+        <v>360</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -625,7 +625,7 @@
       </c>
       <c r="B18" s="3">
         <f ca="1">TODAY()</f>
-        <v>43459</v>
+        <v>43461</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">

--- a/工作代码/每日报表/每日报表基础文件.xlsx
+++ b/工作代码/每日报表/每日报表基础文件.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21029"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FAD3DB3-883B-46FB-B43A-F8F63B508CD3}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C3AEDDD-DBEB-43B9-8B25-CF3350EB50A6}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="17340" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="17796" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -479,7 +479,7 @@
   <dimension ref="A1:B21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -503,7 +503,7 @@
       </c>
       <c r="B2" s="3">
         <f ca="1">TODAY()-1</f>
-        <v>43460</v>
+        <v>43461</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -512,7 +512,7 @@
       </c>
       <c r="B3" s="1">
         <f ca="1">TODAY()-"1-1"</f>
-        <v>360</v>
+        <v>361</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -625,7 +625,7 @@
       </c>
       <c r="B18" s="3">
         <f ca="1">TODAY()</f>
-        <v>43461</v>
+        <v>43462</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">

--- a/工作代码/每日报表/每日报表基础文件.xlsx
+++ b/工作代码/每日报表/每日报表基础文件.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21029"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C3AEDDD-DBEB-43B9-8B25-CF3350EB50A6}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{209DC7EF-36AA-4791-82F0-7EB44F968489}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="17796" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="18252" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -479,7 +479,7 @@
   <dimension ref="A1:B21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -503,7 +503,7 @@
       </c>
       <c r="B2" s="3">
         <f ca="1">TODAY()-1</f>
-        <v>43461</v>
+        <v>43462</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -512,7 +512,7 @@
       </c>
       <c r="B3" s="1">
         <f ca="1">TODAY()-"1-1"</f>
-        <v>361</v>
+        <v>362</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -625,7 +625,7 @@
       </c>
       <c r="B18" s="3">
         <f ca="1">TODAY()</f>
-        <v>43462</v>
+        <v>43463</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">

--- a/工作代码/每日报表/每日报表基础文件.xlsx
+++ b/工作代码/每日报表/每日报表基础文件.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21029"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{209DC7EF-36AA-4791-82F0-7EB44F968489}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B024C72B-ECC2-40F2-9752-C2AD3825B30D}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="18252" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="18708" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -124,11 +124,11 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>否</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>5、6、7、8号机组全部停备</t>
+  </si>
+  <si>
+    <t>是</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -479,7 +479,7 @@
   <dimension ref="A1:B21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -503,7 +503,7 @@
       </c>
       <c r="B2" s="3">
         <f ca="1">TODAY()-1</f>
-        <v>43462</v>
+        <v>43467</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -512,7 +512,7 @@
       </c>
       <c r="B3" s="1">
         <f ca="1">TODAY()-"1-1"</f>
-        <v>362</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -520,7 +520,7 @@
         <v>14</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -528,7 +528,7 @@
         <v>13</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -542,7 +542,7 @@
         <v>1</v>
       </c>
       <c r="B7">
-        <v>0</v>
+        <v>5500668</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -550,7 +550,7 @@
         <v>2</v>
       </c>
       <c r="B8">
-        <v>53319835.999999963</v>
+        <v>5500668</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -558,7 +558,7 @@
         <v>3</v>
       </c>
       <c r="B9">
-        <v>1309805397.0000002</v>
+        <v>5500668</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -566,7 +566,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0</v>
+        <v>1166908.0000000349</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -580,7 +580,7 @@
         <v>7</v>
       </c>
       <c r="B12">
-        <v>2688353.0000000112</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -588,7 +588,7 @@
         <v>6</v>
       </c>
       <c r="B13">
-        <v>106714531.00000006</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -602,7 +602,7 @@
         <v>4</v>
       </c>
       <c r="B15">
-        <v>7976</v>
+        <v>2500</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -610,7 +610,7 @@
         <v>5</v>
       </c>
       <c r="B16">
-        <v>130125</v>
+        <v>121334</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -625,7 +625,7 @@
       </c>
       <c r="B18" s="3">
         <f ca="1">TODAY()</f>
-        <v>43463</v>
+        <v>43468</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -633,7 +633,7 @@
         <v>19</v>
       </c>
       <c r="B19" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>

--- a/工作代码/每日报表/每日报表基础文件.xlsx
+++ b/工作代码/每日报表/每日报表基础文件.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21029"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B024C72B-ECC2-40F2-9752-C2AD3825B30D}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D154FC87-0B7E-4B16-8603-3A9661228EBC}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="18708" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="19620" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -127,7 +127,7 @@
     <t>5、6、7、8号机组全部停备</t>
   </si>
   <si>
-    <t>是</t>
+    <t>否</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -479,7 +479,7 @@
   <dimension ref="A1:B21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -503,7 +503,7 @@
       </c>
       <c r="B2" s="3">
         <f ca="1">TODAY()-1</f>
-        <v>43467</v>
+        <v>43468</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -512,7 +512,7 @@
       </c>
       <c r="B3" s="1">
         <f ca="1">TODAY()-"1-1"</f>
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -542,7 +542,7 @@
         <v>1</v>
       </c>
       <c r="B7">
-        <v>5500668</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -566,7 +566,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1166908.0000000349</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -625,7 +625,7 @@
       </c>
       <c r="B18" s="3">
         <f ca="1">TODAY()</f>
-        <v>43468</v>
+        <v>43469</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">

--- a/工作代码/每日报表/每日报表基础文件.xlsx
+++ b/工作代码/每日报表/每日报表基础文件.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21126"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D154FC87-0B7E-4B16-8603-3A9661228EBC}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BAFBA285-0194-4D4E-B8B9-488E1348640E}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="19620" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="20076" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -124,11 +124,11 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>5、6、7、8号机组全部停备</t>
-  </si>
-  <si>
     <t>否</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>5、6号机组运行、7、8号机组停备</t>
   </si>
 </sst>
 </file>
@@ -479,7 +479,7 @@
   <dimension ref="A1:B21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -503,7 +503,7 @@
       </c>
       <c r="B2" s="3">
         <f ca="1">TODAY()-1</f>
-        <v>43468</v>
+        <v>43471</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -512,7 +512,7 @@
       </c>
       <c r="B3" s="1">
         <f ca="1">TODAY()-"1-1"</f>
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -520,7 +520,7 @@
         <v>14</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -528,7 +528,7 @@
         <v>13</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -625,7 +625,7 @@
       </c>
       <c r="B18" s="3">
         <f ca="1">TODAY()</f>
-        <v>43469</v>
+        <v>43472</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -633,7 +633,7 @@
         <v>19</v>
       </c>
       <c r="B19" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>

--- a/工作代码/每日报表/每日报表基础文件.xlsx
+++ b/工作代码/每日报表/每日报表基础文件.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21126"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BAFBA285-0194-4D4E-B8B9-488E1348640E}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90107A1F-D8BC-482D-9B8C-6BE0FEEE8649}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="20076" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="20988" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="27">
   <si>
     <t>昨天是今年第几天</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -128,7 +128,11 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>5、6号机组运行、7、8号机组停备</t>
+    <t>5、6、7、8号机组全部停备</t>
+  </si>
+  <si>
+    <t>是</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -479,7 +483,7 @@
   <dimension ref="A1:B21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -503,7 +507,7 @@
       </c>
       <c r="B2" s="3">
         <f ca="1">TODAY()-1</f>
-        <v>43471</v>
+        <v>43472</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -512,7 +516,7 @@
       </c>
       <c r="B3" s="1">
         <f ca="1">TODAY()-"1-1"</f>
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -528,7 +532,7 @@
         <v>13</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -542,7 +546,7 @@
         <v>1</v>
       </c>
       <c r="B7">
-        <v>0</v>
+        <v>2439820.0000000028</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -550,7 +554,7 @@
         <v>2</v>
       </c>
       <c r="B8">
-        <v>5500668</v>
+        <v>7940488.0000000028</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -558,7 +562,7 @@
         <v>3</v>
       </c>
       <c r="B9">
-        <v>5500668</v>
+        <v>7940488.0000000028</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -566,7 +570,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0</v>
+        <v>518227.00000000035</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -625,7 +629,7 @@
       </c>
       <c r="B18" s="3">
         <f ca="1">TODAY()</f>
-        <v>43472</v>
+        <v>43473</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -643,12 +647,18 @@
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{091474DD-75E8-4B77-B211-87D245E3B45C}">
           <x14:formula1>
             <xm:f>Sheet2!$A$1:$A$4</xm:f>
           </x14:formula1>
           <xm:sqref>B19</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{9DC4D714-34AC-4A5F-B0AB-61F5B940DE2B}">
+          <x14:formula1>
+            <xm:f>Sheet2!C1:C2</xm:f>
+          </x14:formula1>
+          <xm:sqref>B4:B5</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -658,10 +668,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8859FBFC-D926-4692-9083-5E43F5427244}">
-  <dimension ref="A1:A4"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -669,22 +679,28 @@
     <col min="1" max="1" width="33.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C1" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C2" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>21</v>
       </c>
